--- a/INPUT_DATA/Блюда для загрузки.xlsx
+++ b/INPUT_DATA/Блюда для загрузки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antro\YandexDisk\Преподавание\Курс 1С Программирование обновленный\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\OneC\INPUT_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28D5ED4-07E1-417D-BBA6-2784020F91BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B3D92-5C25-462C-840D-0F649FAB9767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="В1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Состав</t>
   </si>
   <si>
-    <t>Колорийность</t>
-  </si>
-  <si>
     <t>Категория</t>
   </si>
   <si>
@@ -264,7 +261,10 @@
     <t>НДС</t>
   </si>
   <si>
-    <t>Соответсие категорий блюд с данными файла</t>
+    <t>Калорийность</t>
+  </si>
+  <si>
+    <t>Соответствие категорий блюд с данными файла</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
     <tableColumn id="2" xr3:uid="{5900C04B-61F3-4C2E-B0F9-88EDEAE02A47}" name="Наименование"/>
     <tableColumn id="3" xr3:uid="{EAF99FCF-3672-4971-8FA5-A0A90D743CF1}" name="Вес"/>
     <tableColumn id="4" xr3:uid="{666E2366-3CFD-45D5-A068-0DB5EDDCDA11}" name="Состав"/>
-    <tableColumn id="5" xr3:uid="{54D18BEB-9020-471C-AA7E-26189E665FA3}" name="Колорийность"/>
+    <tableColumn id="5" xr3:uid="{54D18BEB-9020-471C-AA7E-26189E665FA3}" name="Калорийность"/>
     <tableColumn id="9" xr3:uid="{A4ACE339-3F09-4749-A9B2-27D10C4A2ED8}" name="ИД категории"/>
     <tableColumn id="8" xr3:uid="{DC3F9B71-3BCB-406D-BE37-01E7EB69E86A}" name="Номер категории"/>
     <tableColumn id="6" xr3:uid="{ABD1F4B1-6E35-4600-BA7E-4352A4685C64}" name="Категория"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,45 +688,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>361.99</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -737,22 +737,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -763,25 +763,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>30.46</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -792,22 +792,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -818,22 +818,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -844,25 +844,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -873,22 +873,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -899,25 +899,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>20</v>
@@ -928,25 +928,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>239.12</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>20</v>
@@ -957,25 +957,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>318.10000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -986,25 +986,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>369.93</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>20</v>
@@ -1015,25 +1015,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>56.32</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1044,25 +1044,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>275.47000000000003</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1073,25 +1073,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -1102,25 +1102,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>39.25</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>20</v>
@@ -1131,25 +1131,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>20</v>
@@ -1160,25 +1160,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>20</v>
@@ -1189,25 +1189,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>63.53</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19">
         <v>20</v>
@@ -1218,25 +1218,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>95.12</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -1247,25 +1247,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>338.93</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -1276,25 +1276,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>251.21</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1305,25 +1305,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>243.93</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -1334,25 +1334,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>199.32</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24">
         <v>20</v>
@@ -1363,22 +1363,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>20</v>
@@ -1389,25 +1389,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>61.5</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26">
         <v>20</v>
@@ -1418,25 +1418,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>10</v>
@@ -1447,22 +1447,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>20</v>
@@ -1473,25 +1473,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29">
         <v>20</v>
@@ -1510,76 +1510,76 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/INPUT_DATA/Блюда для загрузки.xlsx
+++ b/INPUT_DATA/Блюда для загрузки.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\OneC\INPUT_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B3D92-5C25-462C-840D-0F649FAB9767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64530725-1EED-4608-8B66-DD4B2431F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="В1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -288,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -305,13 +316,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -391,7 +432,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8F49B45-12F9-491E-931D-A1B154BD2E85}" name="Таблица3" displayName="Таблица3" ref="I1:I29" totalsRowShown="0">
   <autoFilter ref="I1:I29" xr:uid="{A8F49B45-12F9-491E-931D-A1B154BD2E85}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FFBE53C1-D0C9-4D34-8639-E367E5B382D5}" name="Цена"/>
+    <tableColumn id="1" xr3:uid="{FFBE53C1-D0C9-4D34-8639-E367E5B382D5}" name="Цена">
+      <calculatedColumnFormula>I31 + 1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +775,8 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>249</v>
+        <f>I31 + 1</f>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -758,7 +802,8 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>200</v>
+        <f t="shared" ref="I3:I29" si="0">I32 + 1</f>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -787,7 +832,8 @@
         <v>20</v>
       </c>
       <c r="I4">
-        <v>129</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -813,7 +859,8 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <v>380</v>
+        <f t="shared" si="0"/>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,7 +886,8 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,7 +916,8 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>350</v>
+        <f t="shared" si="0"/>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -894,7 +943,8 @@
         <v>20</v>
       </c>
       <c r="I8">
-        <v>239</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -923,7 +973,8 @@
         <v>20</v>
       </c>
       <c r="I9">
-        <v>195</v>
+        <f t="shared" si="0"/>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -952,7 +1003,8 @@
         <v>20</v>
       </c>
       <c r="I10">
-        <v>525</v>
+        <f t="shared" si="0"/>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -981,7 +1033,8 @@
         <v>20</v>
       </c>
       <c r="I11">
-        <v>159</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1010,7 +1063,8 @@
         <v>20</v>
       </c>
       <c r="I12">
-        <v>219</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1039,7 +1093,8 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1068,7 +1123,8 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1097,7 +1153,8 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>129</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1126,7 +1183,8 @@
         <v>20</v>
       </c>
       <c r="I16">
-        <v>289</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1155,7 +1213,8 @@
         <v>20</v>
       </c>
       <c r="I17">
-        <v>129</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1184,7 +1243,8 @@
         <v>20</v>
       </c>
       <c r="I18">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1213,7 +1273,8 @@
         <v>20</v>
       </c>
       <c r="I19">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1242,7 +1303,8 @@
         <v>20</v>
       </c>
       <c r="I20">
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1271,7 +1333,8 @@
         <v>20</v>
       </c>
       <c r="I21">
-        <v>225</v>
+        <f t="shared" si="0"/>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1300,7 +1363,8 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>349</v>
+        <f t="shared" si="0"/>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1329,7 +1393,8 @@
         <v>20</v>
       </c>
       <c r="I23">
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1358,7 +1423,8 @@
         <v>20</v>
       </c>
       <c r="I24">
-        <v>149</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1384,7 +1450,8 @@
         <v>20</v>
       </c>
       <c r="I25">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1413,7 +1480,8 @@
         <v>20</v>
       </c>
       <c r="I26">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1442,7 +1510,8 @@
         <v>10</v>
       </c>
       <c r="I27">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1468,7 +1537,8 @@
         <v>20</v>
       </c>
       <c r="I28">
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,13 +1567,17 @@
         <v>20</v>
       </c>
       <c r="I29">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
+      <c r="I31" s="2">
+        <v>249</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1515,8 +1589,11 @@
       <c r="C32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I32" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -1526,8 +1603,11 @@
       <c r="C33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I33" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1537,8 +1617,11 @@
       <c r="C34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I34" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1548,8 +1631,11 @@
       <c r="C35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I35" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1559,8 +1645,11 @@
       <c r="C36" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I36" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1570,8 +1659,11 @@
       <c r="C37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I37" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1580,6 +1672,109 @@
       </c>
       <c r="C38" t="s">
         <v>71</v>
+      </c>
+      <c r="I38" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="3">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
